--- a/public/template/cloudTemp.xlsx
+++ b/public/template/cloudTemp.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,26 +44,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -397,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -446,21 +453,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="2" tint="-0.1"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -575,137 +567,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -714,9 +706,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1041,7 +1030,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1051,7 +1040,7 @@
     <col min="4" max="4" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1050,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/public/template/cloudTemp.xlsx
+++ b/public/template/cloudTemp.xlsx
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>序号</t>
   </si>
   <si>
     <t>业主单位</t>
+  </si>
+  <si>
+    <t>设计单位</t>
   </si>
   <si>
     <t>项目名称</t>
@@ -429,9 +432,7 @@
       <left style="thin">
         <color theme="2" tint="-0.1"/>
       </left>
-      <right style="thin">
-        <color theme="2" tint="-0.1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -697,12 +698,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1027,20 +1031,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,8 +1055,11 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
